--- a/src/zika_compilation/zika_db1_params_fixing.xlsx
+++ b/src/zika_compilation/zika_db1_params_fixing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\av1421\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Zika\priority-pathogens\src\zika_compilation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B12E31C-863B-4687-8B98-6428EE474122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B536E3C-9E71-47F8-980A-EE306EDDAF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34F46628-B01A-40BE-84E2-FEF6B7828338}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34F46628-B01A-40BE-84E2-FEF6B7828338}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10991" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11004" uniqueCount="554">
   <si>
     <t>fixed</t>
   </si>
@@ -1562,9 +1562,6 @@
     <t>1a2b67922f9537e0e77ad5fcead8274f</t>
   </si>
   <si>
-    <t>Range (paired)</t>
-  </si>
-  <si>
     <t>Reproduction number (Effective, Re)</t>
   </si>
   <si>
@@ -1701,6 +1698,9 @@
   </si>
   <si>
     <t>fed2e42fa61b9b1a4bf8a2bb67b1cfc7av20</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2231,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2258,8 +2258,26 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2617,31 +2635,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEF6EEF-88D7-47EA-9C20-34D68E183F4A}">
   <dimension ref="A1:CP166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD146" sqref="AD146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="19"/>
+    <col min="25" max="25" width="8.6640625" style="19"/>
     <col min="29" max="29" width="27" customWidth="1"/>
-    <col min="51" max="51" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="17.7109375" customWidth="1"/>
-    <col min="65" max="65" width="13.7109375" customWidth="1"/>
-    <col min="66" max="66" width="21.7109375" customWidth="1"/>
+    <col min="51" max="51" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.6640625" customWidth="1"/>
+    <col min="65" max="65" width="13.6640625" customWidth="1"/>
+    <col min="66" max="66" width="21.6640625" customWidth="1"/>
     <col min="67" max="67" width="15" customWidth="1"/>
-    <col min="69" max="69" width="31.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="37.7109375" customWidth="1"/>
-    <col min="90" max="90" width="17.7109375" customWidth="1"/>
+    <col min="69" max="69" width="31.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="37.6640625" customWidth="1"/>
+    <col min="90" max="90" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2708,13 +2728,13 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="19" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="19" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
@@ -2925,7 +2945,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2992,13 +3012,13 @@
       <c r="V2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -3209,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3276,13 +3296,13 @@
       <c r="V3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z3" s="2" t="s">
@@ -3493,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3560,13 +3580,13 @@
       <c r="V4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="19">
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="19">
         <v>0.5</v>
       </c>
       <c r="Z4" s="2" t="s">
@@ -3777,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3844,13 +3864,13 @@
       <c r="V5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z5" s="2" t="s">
@@ -4061,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4128,13 +4148,13 @@
       <c r="V6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y6" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z6" s="2" t="s">
@@ -4345,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -4412,13 +4432,13 @@
       <c r="V7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z7" s="2" t="s">
@@ -4629,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4696,13 +4716,13 @@
       <c r="V8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Y8" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z8" s="2" t="s">
@@ -4913,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -4980,13 +5000,13 @@
       <c r="V9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="19">
         <v>1.57</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="19">
         <v>3.65</v>
       </c>
       <c r="Z9" s="2" t="s">
@@ -5197,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -5264,13 +5284,13 @@
       <c r="V10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="19">
         <v>1.19</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="19">
         <v>2.68</v>
       </c>
       <c r="Z10" s="2" t="s">
@@ -5481,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -5548,13 +5568,13 @@
       <c r="V11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W11" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z11" s="2" t="s">
@@ -5765,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -5832,13 +5852,13 @@
       <c r="V12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="19">
         <v>1.97</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="19">
         <v>2.97</v>
       </c>
       <c r="Z12" s="2" t="s">
@@ -6049,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -6116,13 +6136,13 @@
       <c r="V13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z13" s="1" t="s">
@@ -6333,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -6400,13 +6420,13 @@
       <c r="V14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z14" s="1" t="s">
@@ -6617,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -6684,13 +6704,13 @@
       <c r="V15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="19">
         <v>2.4</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="19">
         <v>5.6</v>
       </c>
       <c r="Z15" s="2" t="s">
@@ -6901,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -6968,13 +6988,13 @@
       <c r="V16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="19">
         <v>0.01</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="19">
         <v>0.47</v>
       </c>
       <c r="Z16" s="2" t="s">
@@ -7185,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -7252,13 +7272,13 @@
       <c r="V17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="19">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="19">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="Z17" s="2" t="s">
@@ -7469,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -7536,13 +7556,13 @@
       <c r="V18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="19">
         <v>0.02</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Z18" s="2" t="s">
@@ -7753,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -7820,13 +7840,13 @@
       <c r="V19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="19">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="19">
         <v>1.44E-2</v>
       </c>
       <c r="Z19" s="2" t="s">
@@ -8037,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -8104,13 +8124,13 @@
       <c r="V20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W20" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z20" s="2" t="s">
@@ -8321,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -8388,13 +8408,13 @@
       <c r="V21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y21" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z21" s="2" t="s">
@@ -8605,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -8672,13 +8692,13 @@
       <c r="V22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="19">
         <v>34.5</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="19">
         <v>37.799999999999997</v>
       </c>
       <c r="Z22" s="2" t="s">
@@ -8889,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -8956,13 +8976,13 @@
       <c r="V23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="W23" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Y23" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z23" s="2" t="s">
@@ -9173,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -9240,13 +9260,13 @@
       <c r="V24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="W24" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z24" s="2" t="s">
@@ -9457,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -9524,13 +9544,13 @@
       <c r="V25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W25" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Y25" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z25" s="2" t="s">
@@ -9741,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -9808,13 +9828,13 @@
       <c r="V26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y26" s="2" t="s">
+      <c r="Y26" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z26" s="2" t="s">
@@ -10025,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -10092,13 +10112,13 @@
       <c r="V27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="19">
         <v>43.4</v>
       </c>
       <c r="X27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="19">
         <v>48.3</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -10309,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -10376,13 +10396,13 @@
       <c r="V28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="19">
         <v>53.1</v>
       </c>
       <c r="X28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="19">
         <v>59.6</v>
       </c>
       <c r="Z28" s="2" t="s">
@@ -10593,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -10660,13 +10680,13 @@
       <c r="V29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W29" s="2" t="s">
+      <c r="W29" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z29" s="2" t="s">
@@ -10877,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -10944,13 +10964,13 @@
       <c r="V30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="W30" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y30" s="2" t="s">
+      <c r="Y30" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z30" s="2" t="s">
@@ -11161,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -11228,13 +11248,13 @@
       <c r="V31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W31" s="2" t="s">
+      <c r="W31" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y31" s="2" t="s">
+      <c r="Y31" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z31" s="2" t="s">
@@ -11445,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -11512,13 +11532,13 @@
       <c r="V32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="W32" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y32" s="2" t="s">
+      <c r="Y32" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z32" s="2" t="s">
@@ -11729,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -11796,13 +11816,13 @@
       <c r="V33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W33" s="2" t="s">
+      <c r="W33" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y33" s="2" t="s">
+      <c r="Y33" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z33" s="2" t="s">
@@ -12013,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -12080,13 +12100,13 @@
       <c r="V34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W34" s="2" t="s">
+      <c r="W34" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y34" s="2" t="s">
+      <c r="Y34" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z34" s="2" t="s">
@@ -12297,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -12364,13 +12384,13 @@
       <c r="V35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W35" s="2" t="s">
+      <c r="W35" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="Y35" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z35" s="2" t="s">
@@ -12581,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -12648,13 +12668,13 @@
       <c r="V36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Y36" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z36" s="1" t="s">
@@ -12865,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -12932,13 +12952,13 @@
       <c r="V37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W37" s="19">
         <v>0.1663</v>
       </c>
       <c r="X37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="Y37" s="19">
         <v>12.9415</v>
       </c>
       <c r="Z37" s="2" t="s">
@@ -13149,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -13216,13 +13236,13 @@
       <c r="V38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W38" s="2">
+      <c r="W38" s="19">
         <v>1.4663999999999999</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Y38" s="19">
         <v>3.1657999999999999</v>
       </c>
       <c r="Z38" s="2" t="s">
@@ -13433,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -13500,13 +13520,13 @@
       <c r="V39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W39" s="19">
         <v>1.6526000000000001</v>
       </c>
       <c r="X39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="Y39" s="19">
         <v>3.4704000000000002</v>
       </c>
       <c r="Z39" s="2" t="s">
@@ -13717,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -13784,13 +13804,13 @@
       <c r="V40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W40" s="19">
         <v>0.15190000000000001</v>
       </c>
       <c r="X40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="Y40" s="19">
         <v>7.4016000000000002</v>
       </c>
       <c r="Z40" s="2" t="s">
@@ -14001,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -14068,13 +14088,13 @@
       <c r="V41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="19">
         <v>0.14729999999999999</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="Y41" s="19">
         <v>4.8498000000000001</v>
       </c>
       <c r="Z41" s="2" t="s">
@@ -14285,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -14352,13 +14372,13 @@
       <c r="V42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42" s="19">
         <v>0.60019999999999996</v>
       </c>
       <c r="X42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="Y42" s="19">
         <v>15.7379</v>
       </c>
       <c r="Z42" s="2" t="s">
@@ -14569,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -14636,13 +14656,13 @@
       <c r="V43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="19">
         <v>2.0001000000000002</v>
       </c>
       <c r="X43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="Y43" s="19">
         <v>15.5402</v>
       </c>
       <c r="Z43" s="2" t="s">
@@ -14853,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -14920,13 +14940,13 @@
       <c r="V44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W44" s="2">
+      <c r="W44" s="19">
         <v>2.0001000000000002</v>
       </c>
       <c r="X44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="Y44" s="19">
         <v>16.814499999999999</v>
       </c>
       <c r="Z44" s="2" t="s">
@@ -15137,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -15204,13 +15224,13 @@
       <c r="V45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W45" s="2">
+      <c r="W45" s="19">
         <v>4.0000999999999998</v>
       </c>
       <c r="X45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y45" s="2">
+      <c r="Y45" s="19">
         <v>17.035499999999999</v>
       </c>
       <c r="Z45" s="2" t="s">
@@ -15421,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -15488,13 +15508,13 @@
       <c r="V46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="19">
         <v>4</v>
       </c>
       <c r="X46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="Y46" s="19">
         <v>16.9617</v>
       </c>
       <c r="Z46" s="2" t="s">
@@ -15705,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -15772,13 +15792,13 @@
       <c r="V47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W47" s="2" t="s">
+      <c r="W47" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y47" s="2" t="s">
+      <c r="Y47" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z47" s="2" t="s">
@@ -15989,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -16056,13 +16076,13 @@
       <c r="V48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W48" s="2" t="s">
+      <c r="W48" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y48" s="2" t="s">
+      <c r="Y48" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z48" s="2" t="s">
@@ -16273,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -16340,13 +16360,13 @@
       <c r="V49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W49" s="19">
         <v>3.95</v>
       </c>
       <c r="X49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y49" s="2">
+      <c r="Y49" s="19">
         <v>11.01</v>
       </c>
       <c r="Z49" s="2" t="s">
@@ -16557,7 +16577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -16624,13 +16644,13 @@
       <c r="V50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W50" s="19">
         <v>1.21</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y50" s="19">
         <v>2.13</v>
       </c>
       <c r="Z50" s="1" t="s">
@@ -16841,7 +16861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -16908,13 +16928,13 @@
       <c r="V51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W51" s="19">
         <v>0.28999999999999998</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y51" s="19">
         <v>0.64</v>
       </c>
       <c r="Z51" s="1" t="s">
@@ -17125,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -17192,13 +17212,13 @@
       <c r="V52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W52" s="1">
+      <c r="W52" s="19">
         <v>1.23</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Y52" s="19">
         <v>1.87</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -17409,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -17476,13 +17496,13 @@
       <c r="V53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W53" s="19">
         <v>12.83</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Y53" s="19">
         <v>17.14</v>
       </c>
       <c r="Z53" s="1" t="s">
@@ -17693,7 +17713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -17760,13 +17780,13 @@
       <c r="V54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W54" s="2" t="s">
+      <c r="W54" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y54" s="2" t="s">
+      <c r="Y54" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z54" s="2" t="s">
@@ -17977,7 +17997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -18044,13 +18064,13 @@
       <c r="V55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W55" s="2" t="s">
+      <c r="W55" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y55" s="2" t="s">
+      <c r="Y55" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z55" s="2" t="s">
@@ -18261,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -18328,13 +18348,13 @@
       <c r="V56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="W56" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y56" s="1" t="s">
+      <c r="Y56" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z56" s="1" t="s">
@@ -18545,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -18612,13 +18632,13 @@
       <c r="V57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="W57" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Y57" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z57" s="1" t="s">
@@ -18829,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -18896,13 +18916,13 @@
       <c r="V58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="W58" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y58" s="1" t="s">
+      <c r="Y58" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z58" s="1" t="s">
@@ -19113,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -19180,13 +19200,13 @@
       <c r="V59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="W59" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y59" s="1" t="s">
+      <c r="Y59" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -19397,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:94" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:94" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>1</v>
       </c>
@@ -19464,13 +19484,13 @@
       <c r="V60" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="W60" s="12">
+      <c r="W60" s="19">
         <v>26.3</v>
       </c>
       <c r="X60" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="Y60" s="12">
+      <c r="Y60" s="19">
         <v>35.9</v>
       </c>
       <c r="Z60" s="12" t="s">
@@ -19681,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -19748,13 +19768,13 @@
       <c r="V61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W61" s="2">
+      <c r="W61" s="19">
         <v>1</v>
       </c>
       <c r="X61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y61" s="2">
+      <c r="Y61" s="19">
         <v>16</v>
       </c>
       <c r="Z61" s="2" t="s">
@@ -19965,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -20032,13 +20052,13 @@
       <c r="V62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W62" s="2">
+      <c r="W62" s="19">
         <v>1</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y62" s="2">
+      <c r="Y62" s="19">
         <v>2</v>
       </c>
       <c r="Z62" s="2" t="s">
@@ -20249,7 +20269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -20316,13 +20336,13 @@
       <c r="V63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W63" s="2" t="s">
+      <c r="W63" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y63" s="2" t="s">
+      <c r="Y63" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z63" s="2" t="s">
@@ -20533,7 +20553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -20600,13 +20620,13 @@
       <c r="V64" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W64" s="2" t="s">
+      <c r="W64" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X64" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y64" s="2" t="s">
+      <c r="Y64" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z64" s="2" t="s">
@@ -20817,7 +20837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -20884,13 +20904,13 @@
       <c r="V65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W65" s="2">
+      <c r="W65" s="19">
         <v>1.1499999999999999</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y65" s="2">
+      <c r="Y65" s="19">
         <v>1.74</v>
       </c>
       <c r="Z65" s="2" t="s">
@@ -21101,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -21168,13 +21188,13 @@
       <c r="V66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W66" s="2">
+      <c r="W66" s="19">
         <v>4.1100000000000003</v>
       </c>
       <c r="X66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y66" s="2">
+      <c r="Y66" s="19">
         <v>5.16</v>
       </c>
       <c r="Z66" s="2" t="s">
@@ -21385,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -21452,13 +21472,13 @@
       <c r="V67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W67" s="2" t="s">
+      <c r="W67" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y67" s="2" t="s">
+      <c r="Y67" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z67" s="2" t="s">
@@ -21669,7 +21689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -21736,13 +21756,13 @@
       <c r="V68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W68" s="2" t="s">
+      <c r="W68" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y68" s="2" t="s">
+      <c r="Y68" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z68" s="2" t="s">
@@ -21953,7 +21973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -22020,13 +22040,13 @@
       <c r="V69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W69" s="2">
+      <c r="W69" s="19">
         <v>70</v>
       </c>
       <c r="X69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y69" s="2">
+      <c r="Y69" s="19">
         <v>76</v>
       </c>
       <c r="Z69" s="2" t="s">
@@ -22237,7 +22257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -22304,13 +22324,13 @@
       <c r="V70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W70" s="2">
+      <c r="W70" s="19">
         <v>1.7</v>
       </c>
       <c r="X70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y70" s="2">
+      <c r="Y70" s="19">
         <v>1.9</v>
       </c>
       <c r="Z70" s="2" t="s">
@@ -22521,7 +22541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -22588,13 +22608,13 @@
       <c r="V71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W71" s="2" t="s">
+      <c r="W71" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y71" s="2" t="s">
+      <c r="Y71" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z71" s="2" t="s">
@@ -22805,7 +22825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -22872,13 +22892,13 @@
       <c r="V72" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W72" s="2">
+      <c r="W72" s="19">
         <v>4</v>
       </c>
       <c r="X72" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y72" s="2">
+      <c r="Y72" s="19">
         <v>10</v>
       </c>
       <c r="Z72" s="2" t="s">
@@ -23089,7 +23109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -23156,13 +23176,13 @@
       <c r="V73" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W73" s="2">
+      <c r="W73" s="19">
         <v>6</v>
       </c>
       <c r="X73" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y73" s="2">
+      <c r="Y73" s="19">
         <v>10</v>
       </c>
       <c r="Z73" s="2" t="s">
@@ -23373,7 +23393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -23440,13 +23460,13 @@
       <c r="V74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W74" s="2">
+      <c r="W74" s="19">
         <v>60</v>
       </c>
       <c r="X74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y74" s="2">
+      <c r="Y74" s="19">
         <v>65</v>
       </c>
       <c r="Z74" s="2" t="s">
@@ -23657,7 +23677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -23724,13 +23744,13 @@
       <c r="V75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W75" s="2" t="s">
+      <c r="W75" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y75" s="2" t="s">
+      <c r="Y75" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z75" s="2" t="s">
@@ -23941,7 +23961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -24008,13 +24028,13 @@
       <c r="V76" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W76" s="2">
+      <c r="W76" s="19">
         <v>0</v>
       </c>
       <c r="X76" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y76" s="2">
+      <c r="Y76" s="19">
         <v>4</v>
       </c>
       <c r="Z76" s="2" t="s">
@@ -24225,7 +24245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -24292,13 +24312,13 @@
       <c r="V77" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W77" s="2" t="s">
+      <c r="W77" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X77" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y77" s="2" t="s">
+      <c r="Y77" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z77" s="2" t="s">
@@ -24509,7 +24529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -24576,13 +24596,13 @@
       <c r="V78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W78" s="2" t="s">
+      <c r="W78" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y78" s="2" t="s">
+      <c r="Y78" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z78" s="2" t="s">
@@ -24793,7 +24813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -24860,13 +24880,13 @@
       <c r="V79" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W79" s="2" t="s">
+      <c r="W79" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y79" s="2" t="s">
+      <c r="Y79" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z79" s="2" t="s">
@@ -25077,7 +25097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>1</v>
       </c>
@@ -25144,13 +25164,13 @@
       <c r="V80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W80" s="2" t="s">
+      <c r="W80" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y80" s="2" t="s">
+      <c r="Y80" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z80" s="2" t="s">
@@ -25361,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -25428,13 +25448,13 @@
       <c r="V81" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W81" s="2" t="s">
+      <c r="W81" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X81" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y81" s="2" t="s">
+      <c r="Y81" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z81" s="2" t="s">
@@ -25645,7 +25665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>1</v>
       </c>
@@ -25712,13 +25732,13 @@
       <c r="V82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W82" s="2" t="s">
+      <c r="W82" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y82" s="2" t="s">
+      <c r="Y82" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z82" s="2" t="s">
@@ -25929,7 +25949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -25996,13 +26016,13 @@
       <c r="V83" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="W83" s="11" t="s">
+      <c r="W83" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X83" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Y83" s="11" t="s">
+      <c r="Y83" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z83" s="11" t="s">
@@ -26213,7 +26233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -26280,13 +26300,13 @@
       <c r="V84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W84" s="2" t="s">
+      <c r="W84" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y84" s="2" t="s">
+      <c r="Y84" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z84" s="2" t="s">
@@ -26497,7 +26517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -26564,13 +26584,13 @@
       <c r="V85" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W85" s="2" t="s">
+      <c r="W85" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X85" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y85" s="2" t="s">
+      <c r="Y85" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z85" s="2" t="s">
@@ -26781,7 +26801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -26848,13 +26868,13 @@
       <c r="V86" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W86" s="2" t="s">
+      <c r="W86" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X86" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y86" s="2" t="s">
+      <c r="Y86" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z86" s="2" t="s">
@@ -27065,7 +27085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -27132,13 +27152,13 @@
       <c r="V87" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W87" s="2" t="s">
+      <c r="W87" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y87" s="2" t="s">
+      <c r="Y87" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z87" s="2" t="s">
@@ -27349,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -27416,13 +27436,13 @@
       <c r="V88" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W88" s="2" t="s">
+      <c r="W88" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X88" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y88" s="2" t="s">
+      <c r="Y88" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z88" s="2" t="s">
@@ -27633,7 +27653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -27700,13 +27720,13 @@
       <c r="V89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W89" s="2" t="s">
+      <c r="W89" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y89" s="2" t="s">
+      <c r="Y89" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z89" s="2" t="s">
@@ -27917,7 +27937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -27984,13 +28004,13 @@
       <c r="V90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W90" s="2" t="s">
+      <c r="W90" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y90" s="2" t="s">
+      <c r="Y90" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z90" s="2" t="s">
@@ -28201,7 +28221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -28268,13 +28288,13 @@
       <c r="V91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W91" s="2" t="s">
+      <c r="W91" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y91" s="2" t="s">
+      <c r="Y91" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z91" s="2" t="s">
@@ -28485,7 +28505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -28552,13 +28572,13 @@
       <c r="V92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W92" s="2" t="s">
+      <c r="W92" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y92" s="2" t="s">
+      <c r="Y92" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z92" s="2" t="s">
@@ -28769,7 +28789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -28836,13 +28856,13 @@
       <c r="V93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W93" s="2" t="s">
+      <c r="W93" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y93" s="2" t="s">
+      <c r="Y93" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z93" s="2" t="s">
@@ -29053,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -29120,13 +29140,13 @@
       <c r="V94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W94" s="2" t="s">
+      <c r="W94" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y94" s="2" t="s">
+      <c r="Y94" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z94" s="2" t="s">
@@ -29337,7 +29357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -29404,13 +29424,13 @@
       <c r="V95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W95" s="2" t="s">
+      <c r="W95" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y95" s="2" t="s">
+      <c r="Y95" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z95" s="2" t="s">
@@ -29621,7 +29641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -29688,13 +29708,13 @@
       <c r="V96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W96" s="2" t="s">
+      <c r="W96" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y96" s="2" t="s">
+      <c r="Y96" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z96" s="2" t="s">
@@ -29905,7 +29925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -29972,13 +29992,13 @@
       <c r="V97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W97" s="2">
+      <c r="W97" s="19">
         <v>1.63</v>
       </c>
       <c r="X97" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y97" s="2">
+      <c r="Y97" s="19">
         <v>2.36</v>
       </c>
       <c r="Z97" s="2" t="s">
@@ -30189,7 +30209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -30256,13 +30276,13 @@
       <c r="V98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W98" s="2">
+      <c r="W98" s="19">
         <v>1.82</v>
       </c>
       <c r="X98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y98" s="2">
+      <c r="Y98" s="19">
         <v>2.4700000000000002</v>
       </c>
       <c r="Z98" s="2" t="s">
@@ -30473,7 +30493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>1</v>
       </c>
@@ -30540,13 +30560,13 @@
       <c r="V99" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W99" s="2">
+      <c r="W99" s="19">
         <v>1.78</v>
       </c>
       <c r="X99" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y99" s="2">
+      <c r="Y99" s="19">
         <v>2.4700000000000002</v>
       </c>
       <c r="Z99" s="2" t="s">
@@ -30757,7 +30777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>1</v>
       </c>
@@ -30824,13 +30844,13 @@
       <c r="V100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W100" s="2">
+      <c r="W100" s="19">
         <v>1.8</v>
       </c>
       <c r="X100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y100" s="2">
+      <c r="Y100" s="19">
         <v>2.4300000000000002</v>
       </c>
       <c r="Z100" s="2" t="s">
@@ -31041,7 +31061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>1</v>
       </c>
@@ -31108,13 +31128,13 @@
       <c r="V101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W101" s="2">
+      <c r="W101" s="19">
         <v>1.86</v>
       </c>
       <c r="X101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y101" s="2">
+      <c r="Y101" s="19">
         <v>2.35</v>
       </c>
       <c r="Z101" s="2" t="s">
@@ -31325,7 +31345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -31392,13 +31412,13 @@
       <c r="V102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W102" s="2">
+      <c r="W102" s="19">
         <v>1.71</v>
       </c>
       <c r="X102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y102" s="2">
+      <c r="Y102" s="19">
         <v>2.37</v>
       </c>
       <c r="Z102" s="2" t="s">
@@ -31609,291 +31629,291 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>1</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="103" spans="1:94" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="18">
+        <v>1</v>
+      </c>
+      <c r="B103" s="18">
         <v>946</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="18">
         <v>3</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="18">
         <v>2.5</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I103" s="18">
+        <v>0</v>
+      </c>
+      <c r="J103" s="18">
+        <v>0</v>
+      </c>
+      <c r="K103" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="L103" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="M103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q103" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="R103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="S103" s="18">
         <v>0.7</v>
       </c>
-      <c r="I103" s="2">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2">
-        <v>0</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R103" s="2" t="s">
+      <c r="T103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="U103" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="S103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC103" s="2" t="s">
+      <c r="V103" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="W103" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="X103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y103" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC103" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="AD103" s="2" t="s">
+      <c r="AD103" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="AE103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BO103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ103" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="BR103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BV103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX103" s="2" t="s">
+      <c r="AE103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ103" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX103" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="BY103" s="2" t="s">
+      <c r="BY103" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="BZ103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG103" s="2" t="s">
+      <c r="BZ103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG103" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="CH103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI103" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK103" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL103" s="2">
+      <c r="CH103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI103" s="18">
+        <v>0</v>
+      </c>
+      <c r="CJ103" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK103" s="18">
+        <v>0</v>
+      </c>
+      <c r="CL103" s="18">
         <v>19</v>
       </c>
-      <c r="CM103" s="2" t="s">
+      <c r="CM103" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="CN103" s="2" t="s">
+      <c r="CN103" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="CO103" s="2">
-        <v>1</v>
-      </c>
-      <c r="CP103" s="2">
+      <c r="CO103" s="18">
+        <v>1</v>
+      </c>
+      <c r="CP103" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -31960,13 +31980,13 @@
       <c r="V104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W104" s="1">
+      <c r="W104" s="19">
         <v>1.59</v>
       </c>
       <c r="X104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y104" s="1">
+      <c r="Y104" s="19">
         <v>2.2200000000000002</v>
       </c>
       <c r="Z104" s="1" t="s">
@@ -32177,7 +32197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -32244,13 +32264,13 @@
       <c r="V105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W105" s="1" t="s">
+      <c r="W105" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y105" s="1" t="s">
+      <c r="Y105" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z105" s="1" t="s">
@@ -32461,7 +32481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -32528,13 +32548,13 @@
       <c r="V106" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W106" s="1">
+      <c r="W106" s="19">
         <v>52.2</v>
       </c>
       <c r="X106" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y106" s="1">
+      <c r="Y106" s="19">
         <v>67.599999999999994</v>
       </c>
       <c r="Z106" s="1" t="s">
@@ -32745,7 +32765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -32812,13 +32832,13 @@
       <c r="V107" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W107" s="2">
+      <c r="W107" s="19">
         <v>2.5299999999999998</v>
       </c>
       <c r="X107" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y107" s="2">
+      <c r="Y107" s="19">
         <v>2.98</v>
       </c>
       <c r="Z107" s="2" t="s">
@@ -33029,7 +33049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -33096,13 +33116,13 @@
       <c r="V108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W108" s="2" t="s">
+      <c r="W108" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y108" s="2" t="s">
+      <c r="Y108" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z108" s="2" t="s">
@@ -33313,7 +33333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -33380,13 +33400,13 @@
       <c r="V109" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W109" s="2" t="s">
+      <c r="W109" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X109" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y109" s="2" t="s">
+      <c r="Y109" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z109" s="2" t="s">
@@ -33597,7 +33617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -33664,13 +33684,13 @@
       <c r="V110" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W110" s="2">
+      <c r="W110" s="19">
         <v>59.4</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y110" s="2">
+      <c r="Y110" s="19">
         <v>66.099999999999994</v>
       </c>
       <c r="Z110" s="2" t="s">
@@ -33881,7 +33901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -33948,13 +33968,13 @@
       <c r="V111" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W111" s="2" t="s">
+      <c r="W111" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y111" s="2" t="s">
+      <c r="Y111" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z111" s="2" t="s">
@@ -34165,7 +34185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -34232,13 +34252,13 @@
       <c r="V112" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W112" s="2" t="s">
+      <c r="W112" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X112" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y112" s="2" t="s">
+      <c r="Y112" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z112" s="2" t="s">
@@ -34449,7 +34469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -34516,13 +34536,13 @@
       <c r="V113" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W113" s="2" t="s">
+      <c r="W113" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X113" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y113" s="2" t="s">
+      <c r="Y113" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z113" s="2" t="s">
@@ -34733,7 +34753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -34800,13 +34820,13 @@
       <c r="V114" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W114" s="2" t="s">
+      <c r="W114" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X114" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y114" s="2" t="s">
+      <c r="Y114" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z114" s="2" t="s">
@@ -35017,7 +35037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -35084,13 +35104,13 @@
       <c r="V115" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W115" s="1" t="s">
+      <c r="W115" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X115" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y115" s="1" t="s">
+      <c r="Y115" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z115" s="1" t="s">
@@ -35301,7 +35321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -35368,13 +35388,13 @@
       <c r="V116" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W116" s="1" t="s">
+      <c r="W116" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X116" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y116" s="1" t="s">
+      <c r="Y116" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z116" s="1" t="s">
@@ -35585,7 +35605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:94" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:94" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -35652,13 +35672,13 @@
       <c r="V117" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W117" s="1" t="s">
+      <c r="W117" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X117" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y117" s="1" t="s">
+      <c r="Y117" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z117" s="1" t="s">
@@ -35869,7 +35889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -35936,13 +35956,13 @@
       <c r="V118" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W118" s="1" t="s">
+      <c r="W118" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X118" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y118" s="1" t="s">
+      <c r="Y118" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z118" s="1" t="s">
@@ -36153,7 +36173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -36220,13 +36240,13 @@
       <c r="V119" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W119" s="2" t="s">
+      <c r="W119" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X119" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y119" s="2" t="s">
+      <c r="Y119" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z119" s="2" t="s">
@@ -36437,7 +36457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -36504,13 +36524,13 @@
       <c r="V120" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W120" s="2" t="s">
+      <c r="W120" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X120" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y120" s="2" t="s">
+      <c r="Y120" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z120" s="2" t="s">
@@ -36721,7 +36741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -36788,13 +36808,13 @@
       <c r="V121" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W121" s="2" t="s">
+      <c r="W121" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X121" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y121" s="2" t="s">
+      <c r="Y121" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z121" s="2" t="s">
@@ -37005,7 +37025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -37072,13 +37092,13 @@
       <c r="V122" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W122" s="2" t="s">
+      <c r="W122" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X122" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y122" s="2" t="s">
+      <c r="Y122" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z122" s="2" t="s">
@@ -37289,7 +37309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>1</v>
       </c>
@@ -37356,13 +37376,13 @@
       <c r="V123" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W123" s="2" t="s">
+      <c r="W123" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X123" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y123" s="2" t="s">
+      <c r="Y123" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z123" s="2" t="s">
@@ -37573,7 +37593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -37640,13 +37660,13 @@
       <c r="V124" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W124" s="2" t="s">
+      <c r="W124" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X124" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y124" s="2" t="s">
+      <c r="Y124" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z124" s="2" t="s">
@@ -37857,7 +37877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>1</v>
       </c>
@@ -37924,13 +37944,13 @@
       <c r="V125" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W125" s="2">
+      <c r="W125" s="19">
         <v>30</v>
       </c>
       <c r="X125" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y125" s="2">
+      <c r="Y125" s="19">
         <v>48</v>
       </c>
       <c r="Z125" s="2" t="s">
@@ -38141,7 +38161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>1</v>
       </c>
@@ -38208,13 +38228,13 @@
       <c r="V126" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W126" s="2">
+      <c r="W126" s="19">
         <v>16</v>
       </c>
       <c r="X126" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y126" s="2">
+      <c r="Y126" s="19">
         <v>27</v>
       </c>
       <c r="Z126" s="2" t="s">
@@ -38425,7 +38445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -38492,13 +38512,13 @@
       <c r="V127" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W127" s="2">
+      <c r="W127" s="19">
         <v>0</v>
       </c>
       <c r="X127" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y127" s="2">
+      <c r="Y127" s="19">
         <v>1.5</v>
       </c>
       <c r="Z127" s="2" t="s">
@@ -38709,7 +38729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -38776,13 +38796,13 @@
       <c r="V128" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W128" s="2">
+      <c r="W128" s="19">
         <v>0</v>
       </c>
       <c r="X128" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y128" s="2">
+      <c r="Y128" s="19">
         <v>0</v>
       </c>
       <c r="Z128" s="2" t="s">
@@ -38993,7 +39013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>1</v>
       </c>
@@ -39060,13 +39080,13 @@
       <c r="V129" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W129" s="2">
+      <c r="W129" s="19">
         <v>0</v>
       </c>
       <c r="X129" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y129" s="2">
+      <c r="Y129" s="19">
         <v>0</v>
       </c>
       <c r="Z129" s="2" t="s">
@@ -39277,7 +39297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -39344,13 +39364,13 @@
       <c r="V130" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W130" s="2">
+      <c r="W130" s="19">
         <v>0</v>
       </c>
       <c r="X130" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y130" s="2">
+      <c r="Y130" s="19">
         <v>5</v>
       </c>
       <c r="Z130" s="2" t="s">
@@ -39561,291 +39581,291 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>1</v>
-      </c>
-      <c r="B131" s="2">
+    <row r="131" spans="1:94" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="18">
+        <v>1</v>
+      </c>
+      <c r="B131" s="18">
         <v>1496</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="E131" s="2">
-        <v>1</v>
-      </c>
-      <c r="F131" s="2" t="s">
+      <c r="E131" s="18">
+        <v>1</v>
+      </c>
+      <c r="F131" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="18">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I131" s="2">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2">
-        <v>0</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="H131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I131" s="18">
+        <v>0</v>
+      </c>
+      <c r="J131" s="18">
+        <v>0</v>
+      </c>
+      <c r="K131" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="L131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M131" s="2">
+      <c r="L131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="M131" s="18">
         <v>0.98</v>
       </c>
-      <c r="N131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O131" s="2">
+      <c r="N131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O131" s="18">
         <v>56.38</v>
       </c>
-      <c r="P131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q131" s="2" t="s">
+      <c r="P131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q131" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="R131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC131" s="2" t="s">
+      <c r="R131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="S131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="T131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="U131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="V131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="W131" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="X131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y131" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC131" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="AD131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW131" s="2" t="s">
+      <c r="AD131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW131" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="AX131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY131" s="2" t="s">
+      <c r="AX131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY131" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="AZ131" s="2" t="s">
+      <c r="AZ131" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="BA131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH131" s="2" t="s">
+      <c r="BA131" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH131" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="BI131" s="2" t="s">
+      <c r="BI131" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="BJ131" s="2" t="s">
+      <c r="BJ131" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="BK131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM131" s="2">
+      <c r="BK131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM131" s="18">
         <v>1841</v>
       </c>
-      <c r="BN131" s="2" t="s">
+      <c r="BN131" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="BO131" s="2" t="s">
+      <c r="BO131" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="BP131" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ131" s="13" t="s">
+      <c r="BP131" s="18">
+        <v>1</v>
+      </c>
+      <c r="BQ131" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="BR131" s="2">
+      <c r="BR131" s="18">
         <v>2016</v>
       </c>
-      <c r="BS131" s="2">
+      <c r="BS131" s="18">
         <v>11</v>
       </c>
-      <c r="BT131" s="3" t="s">
+      <c r="BT131" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="BU131" s="2">
+      <c r="BU131" s="18">
         <v>2016</v>
       </c>
-      <c r="BV131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX131" s="2" t="s">
+      <c r="BV131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX131" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="BY131" s="2" t="s">
+      <c r="BY131" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="BZ131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC131" s="2" t="s">
+      <c r="BZ131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC131" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="CD131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF131" s="2" t="s">
+      <c r="CD131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF131" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="CG131" s="2" t="s">
+      <c r="CG131" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="CH131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI131" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ131" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK131" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL131" s="2">
-        <v>1</v>
-      </c>
-      <c r="CM131" s="2" t="s">
+      <c r="CH131" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI131" s="18">
+        <v>0</v>
+      </c>
+      <c r="CJ131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK131" s="18">
+        <v>0</v>
+      </c>
+      <c r="CL131" s="18">
+        <v>1</v>
+      </c>
+      <c r="CM131" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="CN131" s="2" t="s">
+      <c r="CN131" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="CO131" s="2">
-        <v>1</v>
-      </c>
-      <c r="CP131" s="2">
+      <c r="CO131" s="18">
+        <v>1</v>
+      </c>
+      <c r="CP131" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>1</v>
       </c>
@@ -39912,13 +39932,13 @@
       <c r="V132" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W132" s="2">
+      <c r="W132" s="19">
         <v>1.74</v>
       </c>
       <c r="X132" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y132" s="2">
+      <c r="Y132" s="19">
         <v>1.87</v>
       </c>
       <c r="Z132" s="2" t="s">
@@ -40129,7 +40149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -40196,13 +40216,13 @@
       <c r="V133" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W133" s="2">
+      <c r="W133" s="19">
         <v>26</v>
       </c>
       <c r="X133" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y133" s="2">
+      <c r="Y133" s="19">
         <v>66</v>
       </c>
       <c r="Z133" s="2" t="s">
@@ -40413,7 +40433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>1</v>
       </c>
@@ -40480,13 +40500,13 @@
       <c r="V134" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W134" s="2">
+      <c r="W134" s="19">
         <v>15</v>
       </c>
       <c r="X134" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y134" s="2">
+      <c r="Y134" s="19">
         <v>37</v>
       </c>
       <c r="Z134" s="2" t="s">
@@ -40697,7 +40717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -40764,13 +40784,13 @@
       <c r="V135" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W135" s="2">
+      <c r="W135" s="19">
         <v>34</v>
       </c>
       <c r="X135" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y135" s="2">
+      <c r="Y135" s="19">
         <v>92</v>
       </c>
       <c r="Z135" s="2" t="s">
@@ -40981,7 +41001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -41048,13 +41068,13 @@
       <c r="V136" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W136" s="4">
+      <c r="W136" s="20">
         <v>9.7799999999999992E-4</v>
       </c>
       <c r="X136" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y136" s="2">
+      <c r="Y136" s="19">
         <v>1.33E-3</v>
       </c>
       <c r="Z136" s="2" t="s">
@@ -41265,7 +41285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:94" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:94" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>1</v>
       </c>
@@ -41332,13 +41352,13 @@
       <c r="V137" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="W137" s="7" t="s">
+      <c r="W137" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X137" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Y137" s="7" t="s">
+      <c r="Y137" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z137" s="7" t="s">
@@ -41549,7 +41569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -41616,13 +41636,13 @@
       <c r="V138" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W138" s="2" t="s">
+      <c r="W138" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X138" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y138" s="2" t="s">
+      <c r="Y138" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z138" s="2" t="s">
@@ -41833,7 +41853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -41900,13 +41920,13 @@
       <c r="V139" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W139" s="2" t="s">
+      <c r="W139" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X139" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y139" s="2" t="s">
+      <c r="Y139" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z139" s="2" t="s">
@@ -42117,7 +42137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -42184,13 +42204,13 @@
       <c r="V140" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W140" s="2" t="s">
+      <c r="W140" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X140" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y140" s="2" t="s">
+      <c r="Y140" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z140" s="2" t="s">
@@ -42401,7 +42421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -42468,13 +42488,13 @@
       <c r="V141" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W141" s="5" t="s">
+      <c r="W141" s="21" t="s">
         <v>97</v>
       </c>
       <c r="X141" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Y141" s="5" t="s">
+      <c r="Y141" s="21" t="s">
         <v>97</v>
       </c>
       <c r="Z141" s="5" t="s">
@@ -42685,7 +42705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>1</v>
       </c>
@@ -42752,13 +42772,13 @@
       <c r="V142" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W142" s="5">
+      <c r="W142" s="21">
         <v>5.6</v>
       </c>
       <c r="X142" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Y142" s="5">
+      <c r="Y142" s="21">
         <v>27.4</v>
       </c>
       <c r="Z142" s="5" t="s">
@@ -42969,1140 +42989,1143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>1</v>
-      </c>
-      <c r="B143" s="2">
+    <row r="143" spans="1:94" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="26">
+        <v>1</v>
+      </c>
+      <c r="B143" s="18">
         <v>1860</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="E143" s="25">
+        <v>14</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G143" s="25">
+        <v>3.26</v>
+      </c>
+      <c r="H143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I143" s="25">
+        <v>0</v>
+      </c>
+      <c r="J143" s="25">
+        <v>0</v>
+      </c>
+      <c r="K143" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q143" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="R143" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="U143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="V143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="W143" s="28">
+        <v>2</v>
+      </c>
+      <c r="X143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y143" s="28">
+        <v>5</v>
+      </c>
+      <c r="Z143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA143" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC143" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD143" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY143" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH143" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI143" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ143" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN143" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="BO143" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP143" s="25">
+        <v>31</v>
+      </c>
+      <c r="BQ143" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="BR143" s="25">
+        <v>2015</v>
+      </c>
+      <c r="BS143" s="25">
+        <v>16</v>
+      </c>
+      <c r="BT143" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="BU143" s="26">
+        <v>2016</v>
+      </c>
+      <c r="BV143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX143" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY143" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC143" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="CD143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF143" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG143" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="CH143" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI143" s="25">
+        <v>2</v>
+      </c>
+      <c r="CJ143" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK143" s="25">
+        <v>5</v>
+      </c>
+      <c r="CL143" s="25">
+        <v>41</v>
+      </c>
+      <c r="CM143" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="CN143" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO143" s="26">
+        <v>1</v>
+      </c>
+      <c r="CP143" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:94" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="26">
+        <v>1</v>
+      </c>
+      <c r="B144" s="18">
+        <v>1860</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D144" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="E143">
+      <c r="E144" s="25">
         <v>14</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G144" s="25">
+        <v>1.63</v>
+      </c>
+      <c r="H144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I144" s="25">
+        <v>0</v>
+      </c>
+      <c r="J144" s="25">
+        <v>0</v>
+      </c>
+      <c r="K144" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q144" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="R144" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="U144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="V144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="W144" s="28">
+        <v>1</v>
+      </c>
+      <c r="X144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y144" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA144" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC144" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD144" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY144" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH144" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI144" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ144" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN144" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="BO144" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP144" s="25">
+        <v>31</v>
+      </c>
+      <c r="BQ144" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="BR144" s="25">
+        <v>2015</v>
+      </c>
+      <c r="BS144" s="25">
+        <v>16</v>
+      </c>
+      <c r="BT144" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="BU144" s="26">
+        <v>2016</v>
+      </c>
+      <c r="BV144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX144" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY144" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC144" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="CD144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF144" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG144" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="CH144" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI144" s="25">
+        <v>1</v>
+      </c>
+      <c r="CJ144" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK144" s="25">
+        <v>2</v>
+      </c>
+      <c r="CL144" s="25">
+        <v>42</v>
+      </c>
+      <c r="CM144" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="CN144" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO144" s="26">
+        <v>1</v>
+      </c>
+      <c r="CP144" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:94" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="26">
+        <v>1</v>
+      </c>
+      <c r="B145" s="18">
+        <v>1860</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="E145" s="25">
+        <v>14</v>
+      </c>
+      <c r="F145" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G143">
-        <v>3.26</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143" t="s">
+      <c r="G145" s="25">
+        <v>5.36</v>
+      </c>
+      <c r="H145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I145" s="25">
+        <v>0</v>
+      </c>
+      <c r="J145" s="25">
+        <v>0</v>
+      </c>
+      <c r="K145" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L145" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q145" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="R145" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="U145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="V145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="W145" s="28">
+        <v>3</v>
+      </c>
+      <c r="X145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y145" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA145" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC145" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD145" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY145" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH145" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI145" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ145" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN145" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="BO145" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP145" s="25">
+        <v>22</v>
+      </c>
+      <c r="BQ145" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="BR145" s="25">
+        <v>2015</v>
+      </c>
+      <c r="BS145" s="25">
+        <v>16</v>
+      </c>
+      <c r="BT145" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="BU145" s="26">
+        <v>2016</v>
+      </c>
+      <c r="BV145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX145" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY145" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC145" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="CD145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF145" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG145" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="CH145" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI145" s="25">
+        <v>3</v>
+      </c>
+      <c r="CJ145" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK145" s="25">
+        <v>10</v>
+      </c>
+      <c r="CL145" s="25">
+        <v>43</v>
+      </c>
+      <c r="CM145" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="CN145" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO145" s="26">
+        <v>1</v>
+      </c>
+      <c r="CP145" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:94" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="26">
+        <v>1</v>
+      </c>
+      <c r="B146" s="18">
+        <v>1860</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="E146" s="25">
+        <v>14</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G146" s="25">
+        <v>1.96</v>
+      </c>
+      <c r="H146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I146" s="25">
+        <v>0</v>
+      </c>
+      <c r="J146" s="25">
+        <v>0</v>
+      </c>
+      <c r="K146" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="M143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q143" t="s">
+      <c r="L146" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q146" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="R143" t="s">
-        <v>507</v>
-      </c>
-      <c r="S143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="W143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC143" t="s">
+      <c r="R146" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="U146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="V146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="W146" s="28">
+        <v>1</v>
+      </c>
+      <c r="X146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y146" s="28">
+        <v>3</v>
+      </c>
+      <c r="Z146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA146" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC146" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="AD143" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM143" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN143" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS143" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT143" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU143" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV143" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY143" t="s">
+      <c r="AD146" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY146" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="AZ143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA143" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB143" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH143" t="s">
+      <c r="AZ146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH146" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="BI143" t="s">
+      <c r="BI146" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="BJ143" t="s">
+      <c r="BJ146" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="BK143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN143" t="s">
+      <c r="BK146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN146" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="BO143" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP143">
-        <v>31</v>
-      </c>
-      <c r="BQ143" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="BR143">
+      <c r="BO146" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP146" s="25">
+        <v>22</v>
+      </c>
+      <c r="BQ146" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="BR146" s="25">
         <v>2015</v>
       </c>
-      <c r="BS143">
+      <c r="BS146" s="25">
         <v>16</v>
       </c>
-      <c r="BT143" s="3" t="s">
+      <c r="BT146" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="BU143" s="5">
+      <c r="BU146" s="26">
         <v>2016</v>
       </c>
-      <c r="BV143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW143" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX143" t="s">
+      <c r="BV146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX146" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="BY143" t="s">
+      <c r="BY146" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="BZ143" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA143" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB143" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC143" s="2" t="s">
+      <c r="BZ146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC146" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="CD143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF143" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG143" t="s">
+      <c r="CD146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF146" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG146" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="CH143" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI143">
-        <v>2</v>
-      </c>
-      <c r="CJ143" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK143">
-        <v>5</v>
-      </c>
-      <c r="CL143">
-        <v>41</v>
-      </c>
-      <c r="CM143" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="CN143" s="5" t="s">
+      <c r="CH146" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI146" s="25">
+        <v>1</v>
+      </c>
+      <c r="CJ146" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK146" s="25">
+        <v>3</v>
+      </c>
+      <c r="CL146" s="25">
+        <v>44</v>
+      </c>
+      <c r="CM146" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="CN146" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="CO143" s="5">
-        <v>1</v>
-      </c>
-      <c r="CP143" s="5">
+      <c r="CO146" s="26">
+        <v>1</v>
+      </c>
+      <c r="CP146" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
-        <v>1</v>
-      </c>
-      <c r="B144" s="2">
-        <v>1860</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="E144">
-        <v>14</v>
-      </c>
-      <c r="F144" t="s">
-        <v>508</v>
-      </c>
-      <c r="G144">
-        <v>1.63</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144" t="s">
-        <v>135</v>
-      </c>
-      <c r="L144" t="s">
-        <v>135</v>
-      </c>
-      <c r="M144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>99</v>
-      </c>
-      <c r="R144" t="s">
-        <v>507</v>
-      </c>
-      <c r="S144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="W144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC144" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD144" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM144" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN144" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS144" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT144" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU144" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV144" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY144" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA144" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB144" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH144" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI144" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ144" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN144" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO144" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP144">
-        <v>31</v>
-      </c>
-      <c r="BQ144" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="BR144">
-        <v>2015</v>
-      </c>
-      <c r="BS144">
-        <v>16</v>
-      </c>
-      <c r="BT144" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="BU144" s="5">
-        <v>2016</v>
-      </c>
-      <c r="BV144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW144" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX144" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY144" t="s">
-        <v>107</v>
-      </c>
-      <c r="BZ144" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA144" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB144" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC144" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF144" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG144" t="s">
-        <v>280</v>
-      </c>
-      <c r="CH144" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI144">
-        <v>1</v>
-      </c>
-      <c r="CJ144" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK144">
-        <v>2</v>
-      </c>
-      <c r="CL144">
-        <v>42</v>
-      </c>
-      <c r="CM144" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="CN144" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO144" s="5">
-        <v>1</v>
-      </c>
-      <c r="CP144" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
-        <v>1</v>
-      </c>
-      <c r="B145" s="2">
-        <v>1860</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="E145">
-        <v>14</v>
-      </c>
-      <c r="F145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G145">
-        <v>5.36</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145" t="s">
-        <v>135</v>
-      </c>
-      <c r="M145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>99</v>
-      </c>
-      <c r="R145" t="s">
-        <v>507</v>
-      </c>
-      <c r="S145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="W145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC145" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD145" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY145" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA145" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB145" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH145" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI145" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ145" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN145" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO145" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP145">
-        <v>22</v>
-      </c>
-      <c r="BQ145" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="BR145">
-        <v>2015</v>
-      </c>
-      <c r="BS145">
-        <v>16</v>
-      </c>
-      <c r="BT145" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="BU145" s="5">
-        <v>2016</v>
-      </c>
-      <c r="BV145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW145" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX145" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY145" t="s">
-        <v>107</v>
-      </c>
-      <c r="BZ145" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA145" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB145" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC145" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF145" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG145" t="s">
-        <v>280</v>
-      </c>
-      <c r="CH145" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI145">
-        <v>3</v>
-      </c>
-      <c r="CJ145" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK145">
-        <v>10</v>
-      </c>
-      <c r="CL145">
-        <v>43</v>
-      </c>
-      <c r="CM145" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="CN145" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO145" s="5">
-        <v>1</v>
-      </c>
-      <c r="CP145" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
-        <v>1</v>
-      </c>
-      <c r="B146" s="2">
-        <v>1860</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="E146">
-        <v>14</v>
-      </c>
-      <c r="F146" t="s">
-        <v>508</v>
-      </c>
-      <c r="G146">
-        <v>1.96</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146" t="s">
-        <v>135</v>
-      </c>
-      <c r="L146" t="s">
-        <v>135</v>
-      </c>
-      <c r="M146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>99</v>
-      </c>
-      <c r="R146" t="s">
-        <v>507</v>
-      </c>
-      <c r="S146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="W146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC146" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD146" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM146" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN146" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS146" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT146" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU146" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV146" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY146" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA146" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB146" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH146" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI146" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ146" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN146" t="s">
-        <v>180</v>
-      </c>
-      <c r="BO146" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP146">
-        <v>22</v>
-      </c>
-      <c r="BQ146" t="s">
-        <v>496</v>
-      </c>
-      <c r="BR146">
-        <v>2015</v>
-      </c>
-      <c r="BS146">
-        <v>16</v>
-      </c>
-      <c r="BT146" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="BU146" s="5">
-        <v>2016</v>
-      </c>
-      <c r="BV146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW146" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX146" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY146" t="s">
-        <v>107</v>
-      </c>
-      <c r="BZ146" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA146" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB146" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC146" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG146" t="s">
-        <v>280</v>
-      </c>
-      <c r="CH146" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI146">
-        <v>1</v>
-      </c>
-      <c r="CJ146" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK146">
-        <v>3</v>
-      </c>
-      <c r="CL146">
-        <v>44</v>
-      </c>
-      <c r="CM146" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="CN146" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO146" s="5">
-        <v>1</v>
-      </c>
-      <c r="CP146" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -44113,7 +44136,7 @@
         <v>132</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E147" s="2">
         <v>1</v>
@@ -44121,7 +44144,7 @@
       <c r="F147" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G147" s="19">
+      <c r="G147" s="18">
         <v>56.38</v>
       </c>
       <c r="H147" s="2" t="s">
@@ -44142,7 +44165,9 @@
       <c r="M147" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N147" s="19"/>
+      <c r="N147" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="O147" s="2" t="s">
         <v>97</v>
       </c>
@@ -44167,13 +44192,13 @@
       <c r="V147" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W147" s="2" t="s">
+      <c r="W147" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X147" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y147" s="2" t="s">
+      <c r="Y147" s="19" t="s">
         <v>97</v>
       </c>
       <c r="Z147" s="2" t="s">
@@ -44299,8 +44324,8 @@
       <c r="BN147" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO147" s="19" t="s">
-        <v>514</v>
+      <c r="BO147" s="18" t="s">
+        <v>513</v>
       </c>
       <c r="BP147" s="2">
         <v>1</v>
@@ -44384,7 +44409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>1</v>
       </c>
@@ -44395,7 +44420,7 @@
         <v>132</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E148" s="2">
         <v>1</v>
@@ -44403,7 +44428,7 @@
       <c r="F148" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G148" s="19">
+      <c r="G148" s="18">
         <v>1.0089999999999999</v>
       </c>
       <c r="H148" s="2" t="s">
@@ -44421,12 +44446,14 @@
       <c r="L148" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M148" s="19">
-        <v>0.99</v>
-      </c>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19">
-        <v>1.02</v>
+      <c r="M148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>97</v>
@@ -44449,14 +44476,14 @@
       <c r="V148" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W148" s="2" t="s">
-        <v>97</v>
+      <c r="W148" s="18">
+        <v>0.99</v>
       </c>
       <c r="X148" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y148" s="2" t="s">
-        <v>97</v>
+      <c r="Y148" s="18">
+        <v>1.02</v>
       </c>
       <c r="Z148" s="2" t="s">
         <v>97</v>
@@ -44581,8 +44608,8 @@
       <c r="BN148" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO148" s="19" t="s">
-        <v>515</v>
+      <c r="BO148" s="18" t="s">
+        <v>514</v>
       </c>
       <c r="BP148" s="2">
         <v>1</v>
@@ -44666,7 +44693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -44677,7 +44704,7 @@
         <v>132</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E149" s="2">
         <v>1</v>
@@ -44685,7 +44712,7 @@
       <c r="F149" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G149" s="19">
+      <c r="G149" s="18">
         <v>2.2000000000000002</v>
       </c>
       <c r="H149" s="2" t="s">
@@ -44703,12 +44730,14 @@
       <c r="L149" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M149" s="19">
-        <v>1.54</v>
-      </c>
-      <c r="N149" s="19"/>
-      <c r="O149" s="19">
-        <v>2.86</v>
+      <c r="M149" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>97</v>
@@ -44731,14 +44760,14 @@
       <c r="V149" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W149" s="2" t="s">
-        <v>97</v>
+      <c r="W149" s="18">
+        <v>1.54</v>
       </c>
       <c r="X149" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y149" s="2" t="s">
-        <v>97</v>
+      <c r="Y149" s="18">
+        <v>2.86</v>
       </c>
       <c r="Z149" s="2" t="s">
         <v>97</v>
@@ -44863,8 +44892,8 @@
       <c r="BN149" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO149" s="19" t="s">
-        <v>516</v>
+      <c r="BO149" s="18" t="s">
+        <v>515</v>
       </c>
       <c r="BP149" s="2">
         <v>1</v>
@@ -44948,7 +44977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -44959,7 +44988,7 @@
         <v>132</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E150" s="2">
         <v>1</v>
@@ -44967,7 +44996,7 @@
       <c r="F150" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G150" s="19">
+      <c r="G150" s="18">
         <v>1.1299999999999999</v>
       </c>
       <c r="H150" s="2" t="s">
@@ -44985,12 +45014,14 @@
       <c r="L150" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M150" s="19">
-        <v>0.84</v>
-      </c>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19">
-        <v>1.42</v>
+      <c r="M150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>97</v>
@@ -45013,14 +45044,14 @@
       <c r="V150" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W150" s="2" t="s">
-        <v>97</v>
+      <c r="W150" s="18">
+        <v>0.84</v>
       </c>
       <c r="X150" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y150" s="2" t="s">
-        <v>97</v>
+      <c r="Y150" s="18">
+        <v>1.42</v>
       </c>
       <c r="Z150" s="2" t="s">
         <v>97</v>
@@ -45145,8 +45176,8 @@
       <c r="BN150" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO150" s="19" t="s">
-        <v>517</v>
+      <c r="BO150" s="18" t="s">
+        <v>516</v>
       </c>
       <c r="BP150" s="2">
         <v>1</v>
@@ -45230,7 +45261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -45241,7 +45272,7 @@
         <v>132</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
@@ -45249,7 +45280,7 @@
       <c r="F151" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G151" s="19">
+      <c r="G151" s="18">
         <v>1.1100000000000001</v>
       </c>
       <c r="H151" s="2" t="s">
@@ -45267,12 +45298,14 @@
       <c r="L151" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M151" s="19">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="N151" s="19"/>
-      <c r="O151" s="19">
-        <v>1.1299999999999999</v>
+      <c r="M151" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>97</v>
@@ -45295,14 +45328,14 @@
       <c r="V151" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W151" s="2" t="s">
-        <v>97</v>
+      <c r="W151" s="18">
+        <v>1.0900000000000001</v>
       </c>
       <c r="X151" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y151" s="2" t="s">
-        <v>97</v>
+      <c r="Y151" s="18">
+        <v>1.1299999999999999</v>
       </c>
       <c r="Z151" s="2" t="s">
         <v>97</v>
@@ -45427,8 +45460,8 @@
       <c r="BN151" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO151" s="19" t="s">
-        <v>518</v>
+      <c r="BO151" s="18" t="s">
+        <v>517</v>
       </c>
       <c r="BP151" s="2">
         <v>1</v>
@@ -45512,7 +45545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -45523,7 +45556,7 @@
         <v>132</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E152" s="2">
         <v>1</v>
@@ -45531,7 +45564,7 @@
       <c r="F152" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G152" s="19">
+      <c r="G152" s="18">
         <v>1.23</v>
       </c>
       <c r="H152" s="2" t="s">
@@ -45549,12 +45582,14 @@
       <c r="L152" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M152" s="19">
-        <v>1.18</v>
-      </c>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19">
-        <v>1.28</v>
+      <c r="M152" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P152" s="2" t="s">
         <v>97</v>
@@ -45577,14 +45612,14 @@
       <c r="V152" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W152" s="2" t="s">
-        <v>97</v>
+      <c r="W152" s="18">
+        <v>1.18</v>
       </c>
       <c r="X152" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y152" s="2" t="s">
-        <v>97</v>
+      <c r="Y152" s="18">
+        <v>1.28</v>
       </c>
       <c r="Z152" s="2" t="s">
         <v>97</v>
@@ -45709,8 +45744,8 @@
       <c r="BN152" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO152" s="19" t="s">
-        <v>519</v>
+      <c r="BO152" s="18" t="s">
+        <v>518</v>
       </c>
       <c r="BP152" s="2">
         <v>1</v>
@@ -45794,7 +45829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -45805,7 +45840,7 @@
         <v>132</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -45813,7 +45848,7 @@
       <c r="F153" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G153" s="19">
+      <c r="G153" s="18">
         <v>1.53</v>
       </c>
       <c r="H153" s="2" t="s">
@@ -45831,12 +45866,14 @@
       <c r="L153" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M153" s="19">
-        <v>1.71</v>
-      </c>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19">
-        <v>1.89</v>
+      <c r="M153" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>97</v>
@@ -45859,14 +45896,14 @@
       <c r="V153" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W153" s="2" t="s">
-        <v>97</v>
+      <c r="W153" s="18">
+        <v>1.71</v>
       </c>
       <c r="X153" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y153" s="2" t="s">
-        <v>97</v>
+      <c r="Y153" s="18">
+        <v>1.89</v>
       </c>
       <c r="Z153" s="2" t="s">
         <v>97</v>
@@ -45991,8 +46028,8 @@
       <c r="BN153" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO153" s="19" t="s">
-        <v>520</v>
+      <c r="BO153" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="BP153" s="2">
         <v>1</v>
@@ -46076,7 +46113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -46087,7 +46124,7 @@
         <v>132</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E154" s="2">
         <v>1</v>
@@ -46095,7 +46132,7 @@
       <c r="F154" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G154" s="19">
+      <c r="G154" s="18">
         <v>1.1200000000000001</v>
       </c>
       <c r="H154" s="2" t="s">
@@ -46113,12 +46150,14 @@
       <c r="L154" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M154" s="19">
-        <v>0.99</v>
-      </c>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19">
-        <v>1.24</v>
+      <c r="M154" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>97</v>
@@ -46141,14 +46180,14 @@
       <c r="V154" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W154" s="2" t="s">
-        <v>97</v>
+      <c r="W154" s="18">
+        <v>0.99</v>
       </c>
       <c r="X154" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y154" s="2" t="s">
-        <v>97</v>
+      <c r="Y154" s="18">
+        <v>1.24</v>
       </c>
       <c r="Z154" s="2" t="s">
         <v>97</v>
@@ -46273,8 +46312,8 @@
       <c r="BN154" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO154" s="19" t="s">
-        <v>521</v>
+      <c r="BO154" s="18" t="s">
+        <v>520</v>
       </c>
       <c r="BP154" s="2">
         <v>1</v>
@@ -46358,7 +46397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -46369,7 +46408,7 @@
         <v>132</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E155" s="2">
         <v>1</v>
@@ -46377,7 +46416,7 @@
       <c r="F155" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G155" s="19">
+      <c r="G155" s="18">
         <v>1.31</v>
       </c>
       <c r="H155" s="2" t="s">
@@ -46395,12 +46434,14 @@
       <c r="L155" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M155" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N155" s="19"/>
-      <c r="O155" s="19">
-        <v>1.52</v>
+      <c r="M155" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>97</v>
@@ -46423,14 +46464,14 @@
       <c r="V155" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W155" s="2" t="s">
-        <v>97</v>
+      <c r="W155" s="18">
+        <v>1.1000000000000001</v>
       </c>
       <c r="X155" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y155" s="2" t="s">
-        <v>97</v>
+      <c r="Y155" s="18">
+        <v>1.52</v>
       </c>
       <c r="Z155" s="2" t="s">
         <v>97</v>
@@ -46555,8 +46596,8 @@
       <c r="BN155" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO155" s="19" t="s">
-        <v>522</v>
+      <c r="BO155" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="BP155" s="2">
         <v>1</v>
@@ -46640,7 +46681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>1</v>
       </c>
@@ -46651,7 +46692,7 @@
         <v>132</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
@@ -46659,7 +46700,7 @@
       <c r="F156" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G156" s="19">
+      <c r="G156" s="18">
         <v>1.1499999999999999</v>
       </c>
       <c r="H156" s="2" t="s">
@@ -46677,12 +46718,14 @@
       <c r="L156" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M156" s="19">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="N156" s="19"/>
-      <c r="O156" s="19">
-        <v>1.17</v>
+      <c r="M156" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>97</v>
@@ -46705,14 +46748,14 @@
       <c r="V156" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W156" s="2" t="s">
-        <v>97</v>
+      <c r="W156" s="18">
+        <v>1.1200000000000001</v>
       </c>
       <c r="X156" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y156" s="2" t="s">
-        <v>97</v>
+      <c r="Y156" s="18">
+        <v>1.17</v>
       </c>
       <c r="Z156" s="2" t="s">
         <v>97</v>
@@ -46837,8 +46880,8 @@
       <c r="BN156" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO156" s="19" t="s">
-        <v>523</v>
+      <c r="BO156" s="18" t="s">
+        <v>522</v>
       </c>
       <c r="BP156" s="2">
         <v>1</v>
@@ -46922,7 +46965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -46933,7 +46976,7 @@
         <v>132</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E157" s="2">
         <v>1</v>
@@ -46941,7 +46984,7 @@
       <c r="F157" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G157" s="19">
+      <c r="G157" s="18">
         <v>1.08</v>
       </c>
       <c r="H157" s="2" t="s">
@@ -46959,12 +47002,14 @@
       <c r="L157" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M157" s="19">
-        <v>1.02</v>
-      </c>
-      <c r="N157" s="19"/>
-      <c r="O157" s="19">
-        <v>1.1499999999999999</v>
+      <c r="M157" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>97</v>
@@ -46987,14 +47032,14 @@
       <c r="V157" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W157" s="2" t="s">
-        <v>97</v>
+      <c r="W157" s="18">
+        <v>1.02</v>
       </c>
       <c r="X157" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y157" s="2" t="s">
-        <v>97</v>
+      <c r="Y157" s="18">
+        <v>1.1499999999999999</v>
       </c>
       <c r="Z157" s="2" t="s">
         <v>97</v>
@@ -47119,8 +47164,8 @@
       <c r="BN157" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO157" s="19" t="s">
-        <v>524</v>
+      <c r="BO157" s="18" t="s">
+        <v>523</v>
       </c>
       <c r="BP157" s="2">
         <v>1</v>
@@ -47204,7 +47249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -47215,7 +47260,7 @@
         <v>132</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E158" s="2">
         <v>1</v>
@@ -47223,7 +47268,7 @@
       <c r="F158" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G158" s="19">
+      <c r="G158" s="18">
         <v>1.03</v>
       </c>
       <c r="H158" s="2" t="s">
@@ -47241,12 +47286,14 @@
       <c r="L158" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M158" s="19">
-        <v>0.97</v>
-      </c>
-      <c r="N158" s="19"/>
-      <c r="O158" s="19">
-        <v>1.0900000000000001</v>
+      <c r="M158" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P158" s="2" t="s">
         <v>97</v>
@@ -47269,14 +47316,14 @@
       <c r="V158" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W158" s="2" t="s">
-        <v>97</v>
+      <c r="W158" s="18">
+        <v>0.97</v>
       </c>
       <c r="X158" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y158" s="2" t="s">
-        <v>97</v>
+      <c r="Y158" s="18">
+        <v>1.0900000000000001</v>
       </c>
       <c r="Z158" s="2" t="s">
         <v>97</v>
@@ -47401,8 +47448,8 @@
       <c r="BN158" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO158" s="19" t="s">
-        <v>525</v>
+      <c r="BO158" s="18" t="s">
+        <v>524</v>
       </c>
       <c r="BP158" s="2">
         <v>1</v>
@@ -47486,7 +47533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -47497,7 +47544,7 @@
         <v>132</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -47505,7 +47552,7 @@
       <c r="F159" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G159" s="19">
+      <c r="G159" s="18">
         <v>1.07</v>
       </c>
       <c r="H159" s="2" t="s">
@@ -47523,12 +47570,14 @@
       <c r="L159" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M159" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19">
-        <v>1.26</v>
+      <c r="M159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>97</v>
@@ -47551,14 +47600,14 @@
       <c r="V159" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W159" s="2" t="s">
-        <v>97</v>
+      <c r="W159" s="18">
+        <v>0.8</v>
       </c>
       <c r="X159" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y159" s="2" t="s">
-        <v>97</v>
+      <c r="Y159" s="18">
+        <v>1.26</v>
       </c>
       <c r="Z159" s="2" t="s">
         <v>97</v>
@@ -47683,8 +47732,8 @@
       <c r="BN159" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO159" s="19" t="s">
-        <v>526</v>
+      <c r="BO159" s="18" t="s">
+        <v>525</v>
       </c>
       <c r="BP159" s="2">
         <v>1</v>
@@ -47768,7 +47817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -47779,7 +47828,7 @@
         <v>132</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E160" s="2">
         <v>1</v>
@@ -47787,7 +47836,7 @@
       <c r="F160" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G160" s="19">
+      <c r="G160" s="18">
         <v>1.18</v>
       </c>
       <c r="H160" s="2" t="s">
@@ -47805,12 +47854,14 @@
       <c r="L160" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M160" s="19">
-        <v>1.06</v>
-      </c>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19">
-        <v>1.3</v>
+      <c r="M160" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P160" s="2" t="s">
         <v>97</v>
@@ -47833,14 +47884,14 @@
       <c r="V160" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W160" s="2" t="s">
-        <v>97</v>
+      <c r="W160" s="18">
+        <v>1.06</v>
       </c>
       <c r="X160" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y160" s="2" t="s">
-        <v>97</v>
+      <c r="Y160" s="18">
+        <v>1.3</v>
       </c>
       <c r="Z160" s="2" t="s">
         <v>97</v>
@@ -47965,8 +48016,8 @@
       <c r="BN160" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO160" s="19" t="s">
-        <v>527</v>
+      <c r="BO160" s="18" t="s">
+        <v>526</v>
       </c>
       <c r="BP160" s="2">
         <v>1</v>
@@ -48050,7 +48101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -48061,7 +48112,7 @@
         <v>132</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
@@ -48069,7 +48120,7 @@
       <c r="F161" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G161" s="19">
+      <c r="G161" s="18">
         <v>22.2</v>
       </c>
       <c r="H161" s="2" t="s">
@@ -48090,7 +48141,9 @@
       <c r="M161" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N161" s="19"/>
+      <c r="N161" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="O161" s="2" t="s">
         <v>97</v>
       </c>
@@ -48247,8 +48300,8 @@
       <c r="BN161" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO161" s="19" t="s">
-        <v>528</v>
+      <c r="BO161" s="18" t="s">
+        <v>527</v>
       </c>
       <c r="BP161" s="2">
         <v>1</v>
@@ -48332,7 +48385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -48343,7 +48396,7 @@
         <v>132</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
@@ -48351,7 +48404,7 @@
       <c r="F162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G162" s="19">
+      <c r="G162" s="18">
         <v>0.98</v>
       </c>
       <c r="H162" s="2" t="s">
@@ -48369,12 +48422,14 @@
       <c r="L162" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M162" s="19">
-        <v>0.93</v>
-      </c>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19">
-        <v>1.02</v>
+      <c r="M162" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P162" s="2" t="s">
         <v>97</v>
@@ -48397,14 +48452,14 @@
       <c r="V162" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W162" s="2" t="s">
-        <v>97</v>
+      <c r="W162" s="18">
+        <v>0.93</v>
       </c>
       <c r="X162" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y162" s="2" t="s">
-        <v>97</v>
+      <c r="Y162" s="18">
+        <v>1.02</v>
       </c>
       <c r="Z162" s="2" t="s">
         <v>97</v>
@@ -48529,8 +48584,8 @@
       <c r="BN162" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO162" s="19" t="s">
-        <v>529</v>
+      <c r="BO162" s="18" t="s">
+        <v>528</v>
       </c>
       <c r="BP162" s="2">
         <v>1</v>
@@ -48614,7 +48669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -48625,7 +48680,7 @@
         <v>132</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E163" s="2">
         <v>1</v>
@@ -48633,7 +48688,7 @@
       <c r="F163" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G163" s="19">
+      <c r="G163" s="18">
         <v>0.98</v>
       </c>
       <c r="H163" s="2" t="s">
@@ -48654,7 +48709,9 @@
       <c r="M163" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N163" s="19"/>
+      <c r="N163" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="O163" s="2" t="s">
         <v>97</v>
       </c>
@@ -48811,8 +48868,8 @@
       <c r="BN163" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO163" s="19" t="s">
-        <v>530</v>
+      <c r="BO163" s="18" t="s">
+        <v>529</v>
       </c>
       <c r="BP163" s="2">
         <v>1</v>
@@ -48896,7 +48953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -48907,7 +48964,7 @@
         <v>132</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E164" s="2">
         <v>1</v>
@@ -48915,7 +48972,7 @@
       <c r="F164" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G164" s="19">
+      <c r="G164" s="18">
         <v>0.98</v>
       </c>
       <c r="H164" s="2" t="s">
@@ -48933,12 +48990,14 @@
       <c r="L164" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M164" s="19">
-        <v>0.88</v>
-      </c>
-      <c r="N164" s="19"/>
-      <c r="O164" s="19">
-        <v>1.08</v>
+      <c r="M164" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P164" s="2" t="s">
         <v>97</v>
@@ -48961,14 +49020,14 @@
       <c r="V164" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W164" s="2" t="s">
-        <v>97</v>
+      <c r="W164" s="18">
+        <v>0.88</v>
       </c>
       <c r="X164" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y164" s="2" t="s">
-        <v>97</v>
+      <c r="Y164" s="18">
+        <v>1.08</v>
       </c>
       <c r="Z164" s="2" t="s">
         <v>97</v>
@@ -49093,8 +49152,8 @@
       <c r="BN164" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO164" s="19" t="s">
-        <v>531</v>
+      <c r="BO164" s="18" t="s">
+        <v>530</v>
       </c>
       <c r="BP164" s="2">
         <v>1</v>
@@ -49178,7 +49237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -49189,7 +49248,7 @@
         <v>132</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E165" s="2">
         <v>1</v>
@@ -49197,7 +49256,7 @@
       <c r="F165" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G165" s="19">
+      <c r="G165" s="18">
         <v>0.98</v>
       </c>
       <c r="H165" s="2" t="s">
@@ -49215,12 +49274,14 @@
       <c r="L165" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M165" s="19">
-        <v>0.92</v>
-      </c>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19">
-        <v>1.03</v>
+      <c r="M165" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N165" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P165" s="2" t="s">
         <v>97</v>
@@ -49243,14 +49304,14 @@
       <c r="V165" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W165" s="2" t="s">
-        <v>97</v>
+      <c r="W165" s="18">
+        <v>0.92</v>
       </c>
       <c r="X165" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y165" s="2" t="s">
-        <v>97</v>
+      <c r="Y165" s="18">
+        <v>1.03</v>
       </c>
       <c r="Z165" s="2" t="s">
         <v>97</v>
@@ -49375,8 +49436,8 @@
       <c r="BN165" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO165" s="19" t="s">
-        <v>532</v>
+      <c r="BO165" s="18" t="s">
+        <v>531</v>
       </c>
       <c r="BP165" s="2">
         <v>1</v>
@@ -49460,7 +49521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -49471,7 +49532,7 @@
         <v>132</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E166" s="2">
         <v>1</v>
@@ -49479,7 +49540,7 @@
       <c r="F166" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G166" s="19">
+      <c r="G166" s="18">
         <v>0.98</v>
       </c>
       <c r="H166" s="2" t="s">
@@ -49500,7 +49561,9 @@
       <c r="M166" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N166" s="19"/>
+      <c r="N166" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="O166" s="2" t="s">
         <v>97</v>
       </c>
@@ -49657,8 +49720,8 @@
       <c r="BN166" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BO166" s="19" t="s">
-        <v>533</v>
+      <c r="BO166" s="18" t="s">
+        <v>532</v>
       </c>
       <c r="BP166" s="2">
         <v>1</v>
@@ -49743,7 +49806,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CP142" xr:uid="{DCEF6EEF-88D7-47EA-9C20-34D68E183F4A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A107:CP111">
     <sortCondition ref="F108:F111"/>
     <sortCondition descending="1" ref="C108:C111"/>
